--- a/chinese/时间表.xlsx
+++ b/chinese/时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18450"/>
+    <workbookView windowHeight="18600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>ID</t>
   </si>
@@ -28,6 +28,9 @@
     <t>时间</t>
   </si>
   <si>
+    <t>实际时间</t>
+  </si>
+  <si>
     <t>简介</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t>start</t>
   </si>
   <si>
+    <t>realtime</t>
+  </si>
+  <si>
     <t>intro</t>
   </si>
   <si>
@@ -55,115 +61,115 @@
     <t>int64</t>
   </si>
   <si>
+    <t>隐生代</t>
+  </si>
+  <si>
+    <t>完全混沌</t>
+  </si>
+  <si>
+    <t>盆地群代</t>
+  </si>
+  <si>
+    <t>地球开始冷却，大气层温度下降，形成了一场持续上百万年之久的滂沱暴雨。所有的水汇集起来形成了海洋</t>
+  </si>
+  <si>
+    <t>酒海纪</t>
+  </si>
+  <si>
+    <t>早雨海世</t>
+  </si>
+  <si>
+    <t>始太古代</t>
+  </si>
+  <si>
+    <t>古太古代</t>
+  </si>
+  <si>
+    <t>中太古代</t>
+  </si>
+  <si>
+    <t>新太古代</t>
+  </si>
+  <si>
+    <t>成铁纪</t>
+  </si>
+  <si>
+    <t>中元古代</t>
+  </si>
+  <si>
+    <t>层侵纪</t>
+  </si>
+  <si>
+    <t>造山纪</t>
+  </si>
+  <si>
+    <t>固结纪</t>
+  </si>
+  <si>
+    <t>盖层纪</t>
+  </si>
+  <si>
+    <t>延展纪</t>
+  </si>
+  <si>
+    <t>狭带纪</t>
+  </si>
+  <si>
+    <t>拉伸纪</t>
+  </si>
+  <si>
+    <t>新元古代</t>
+  </si>
+  <si>
+    <t>成冰纪</t>
+  </si>
+  <si>
+    <t>埃迪卡拉纪</t>
+  </si>
+  <si>
+    <t>寒武纪</t>
+  </si>
+  <si>
+    <t>古生代</t>
+  </si>
+  <si>
+    <t>奥陶纪</t>
+  </si>
+  <si>
+    <t>志留纪</t>
+  </si>
+  <si>
+    <t>泥盆纪</t>
+  </si>
+  <si>
+    <t>石炭纪</t>
+  </si>
+  <si>
+    <t>二叠纪</t>
+  </si>
+  <si>
+    <t>三叠纪</t>
+  </si>
+  <si>
+    <t>中生代</t>
+  </si>
+  <si>
+    <t>侏罗纪</t>
+  </si>
+  <si>
+    <t>白垩纪</t>
+  </si>
+  <si>
+    <t>古近纪</t>
+  </si>
+  <si>
+    <t>新生代</t>
+  </si>
+  <si>
+    <t>新近纪</t>
+  </si>
+  <si>
     <t>第四纪</t>
-  </si>
-  <si>
-    <t>新生代</t>
-  </si>
-  <si>
-    <t>地球开始冷却，大气层温度下降，形成了一场持续上百万年之久的滂沱暴雨。所有的水汇集起来形成了海洋</t>
-  </si>
-  <si>
-    <t>新近纪</t>
-  </si>
-  <si>
-    <t>古近纪</t>
-  </si>
-  <si>
-    <t>白垩纪</t>
-  </si>
-  <si>
-    <t>中生代</t>
-  </si>
-  <si>
-    <t>侏罗纪</t>
-  </si>
-  <si>
-    <t>三叠纪</t>
-  </si>
-  <si>
-    <t>二叠纪</t>
-  </si>
-  <si>
-    <t>古生代</t>
-  </si>
-  <si>
-    <t>石炭纪</t>
-  </si>
-  <si>
-    <t>泥盆纪</t>
-  </si>
-  <si>
-    <t>志留纪</t>
-  </si>
-  <si>
-    <t>奥陶纪</t>
-  </si>
-  <si>
-    <t>寒武纪</t>
-  </si>
-  <si>
-    <t>埃迪卡拉纪</t>
-  </si>
-  <si>
-    <t>新元古代</t>
-  </si>
-  <si>
-    <t>成冰纪</t>
-  </si>
-  <si>
-    <t>拉伸纪</t>
-  </si>
-  <si>
-    <t>狭带纪</t>
-  </si>
-  <si>
-    <t>中元古代</t>
-  </si>
-  <si>
-    <t>延展纪</t>
-  </si>
-  <si>
-    <t>盖层纪</t>
-  </si>
-  <si>
-    <t>固结纪</t>
-  </si>
-  <si>
-    <t>造山纪</t>
-  </si>
-  <si>
-    <t>层侵纪</t>
-  </si>
-  <si>
-    <t>成铁纪</t>
-  </si>
-  <si>
-    <t>新太古代</t>
-  </si>
-  <si>
-    <t>中太古代</t>
-  </si>
-  <si>
-    <t>古太古代</t>
-  </si>
-  <si>
-    <t>始太古代</t>
-  </si>
-  <si>
-    <t>早雨海世</t>
-  </si>
-  <si>
-    <t>酒海纪</t>
-  </si>
-  <si>
-    <t>盆地群代</t>
-  </si>
-  <si>
-    <t>隐生代</t>
-  </si>
-  <si>
-    <t>完全混沌</t>
   </si>
 </sst>
 </file>
@@ -171,11 +177,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -205,7 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,6 +219,97 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,30 +330,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,30 +346,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -301,57 +355,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -369,55 +375,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,127 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,30 +584,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -613,30 +595,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,6 +625,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -675,6 +642,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -683,10 +689,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,136 +701,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1202,21 +1208,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A33"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="126.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="126.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:5">
+    <row r="1" ht="20" customHeight="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1229,164 +1236,194 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="1:5">
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" ht="30" customHeight="1" spans="1:5">
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="30" customHeight="1" spans="1:5">
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:6">
       <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4">
-        <v>2580000</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="30" customHeight="1" spans="1:5">
+        <v>-4600000000</v>
+      </c>
+      <c r="E4" s="4">
+        <v>180</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:6">
       <c r="A5" s="7">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4">
-        <v>23000000</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="30" customHeight="1" spans="1:5">
+        <v>-4150000000</v>
+      </c>
+      <c r="E5" s="4">
+        <v>180</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="1:6">
       <c r="A6" s="7">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4">
-        <v>66000000</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="30" customHeight="1" spans="1:5">
+        <v>-3920000000</v>
+      </c>
+      <c r="E6" s="4">
+        <v>180</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:6">
       <c r="A7" s="7">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4">
-        <v>145000000</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="30" customHeight="1" spans="1:5">
+        <v>-3850000000</v>
+      </c>
+      <c r="E7" s="4">
+        <v>180</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="1:6">
       <c r="A8" s="7">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4">
-        <v>199000000</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="30" customHeight="1" spans="1:5">
+        <v>-3800000000</v>
+      </c>
+      <c r="E8" s="4">
+        <v>180</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="1:6">
       <c r="A9" s="7">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4">
-        <v>251000000</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="1:5">
+        <v>-3600000000</v>
+      </c>
+      <c r="E9" s="4">
+        <v>180</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="1:6">
       <c r="A10" s="7">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="4">
-        <v>299000000</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="1:5">
+        <v>-3200000000</v>
+      </c>
+      <c r="E10" s="4">
+        <v>180</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="1:6">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1394,16 +1431,19 @@
         <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4">
-        <v>358000000</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="1:5">
+        <v>-2800000000</v>
+      </c>
+      <c r="E11" s="4">
+        <v>180</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:6">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1411,84 +1451,99 @@
         <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4">
-        <v>419000000</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="30" customHeight="1" spans="1:5">
+        <v>-2500000000</v>
+      </c>
+      <c r="E12" s="4">
+        <v>180</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:6">
       <c r="A13" s="7">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D13" s="4">
-        <v>443000000</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" ht="30" customHeight="1" spans="1:5">
+        <v>-2300000000</v>
+      </c>
+      <c r="E13" s="4">
+        <v>180</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="1:6">
       <c r="A14" s="7">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4">
-        <v>485000000</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" ht="30" customHeight="1" spans="1:5">
+        <v>-2050000000</v>
+      </c>
+      <c r="E14" s="4">
+        <v>180</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="1:6">
       <c r="A15" s="7">
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4">
-        <v>541000000</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" ht="30" customHeight="1" spans="1:5">
+        <v>-1800000000</v>
+      </c>
+      <c r="E15" s="4">
+        <v>180</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="1:6">
       <c r="A16" s="7">
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D16" s="4">
-        <v>630000000</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" ht="30" customHeight="1" spans="1:5">
+        <v>-1600000000</v>
+      </c>
+      <c r="E16" s="4">
+        <v>180</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="1:6">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -1496,16 +1551,19 @@
         <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4">
-        <v>850000000</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" ht="30" customHeight="1" spans="1:5">
+        <v>-1400000000</v>
+      </c>
+      <c r="E17" s="4">
+        <v>180</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="1:6">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -1513,16 +1571,19 @@
         <v>32</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D18" s="4">
-        <v>1000000000</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" ht="30" customHeight="1" spans="1:5">
+        <v>-1200000000</v>
+      </c>
+      <c r="E18" s="4">
+        <v>180</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="1:6">
       <c r="A19" s="7">
         <v>16</v>
       </c>
@@ -1533,13 +1594,16 @@
         <v>34</v>
       </c>
       <c r="D19" s="4">
-        <v>1200000000</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" ht="30" customHeight="1" spans="1:5">
+        <v>-1000000000</v>
+      </c>
+      <c r="E19" s="4">
+        <v>180</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="1:6">
       <c r="A20" s="7">
         <v>17</v>
       </c>
@@ -1550,13 +1614,16 @@
         <v>34</v>
       </c>
       <c r="D20" s="4">
-        <v>1400000000</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" ht="30" customHeight="1" spans="1:5">
+        <v>-850000000</v>
+      </c>
+      <c r="E20" s="4">
+        <v>180</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" spans="1:6">
       <c r="A21" s="7">
         <v>18</v>
       </c>
@@ -1567,13 +1634,16 @@
         <v>34</v>
       </c>
       <c r="D21" s="4">
-        <v>1600000000</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" ht="30" customHeight="1" spans="1:5">
+        <v>-630000000</v>
+      </c>
+      <c r="E21" s="4">
+        <v>180</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" spans="1:6">
       <c r="A22" s="7">
         <v>19</v>
       </c>
@@ -1581,211 +1651,250 @@
         <v>37</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D22" s="4">
-        <v>1800000000</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" ht="30" customHeight="1" spans="1:5">
+        <v>-541000000</v>
+      </c>
+      <c r="E22" s="4">
+        <v>360</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" spans="1:6">
       <c r="A23" s="7">
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="D23" s="4">
-        <v>2050000000</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-485000000</v>
+      </c>
+      <c r="E23" s="4">
+        <v>360</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" spans="1:6">
       <c r="A24" s="7">
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D24" s="4">
-        <v>2300000000</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-443000000</v>
+      </c>
+      <c r="E24" s="4">
+        <v>360</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" spans="1:6">
       <c r="A25" s="7">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D25" s="4">
-        <v>2500000000</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-419000000</v>
+      </c>
+      <c r="E25" s="4">
+        <v>360</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" spans="1:6">
       <c r="A26" s="7">
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D26" s="4">
-        <v>2800000000</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-358000000</v>
+      </c>
+      <c r="E26" s="4">
+        <v>360</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" spans="1:6">
       <c r="A27" s="7">
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D27" s="4">
-        <v>3200000000</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>-299000000</v>
+      </c>
+      <c r="E27" s="4">
+        <v>360</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" spans="1:6">
       <c r="A28" s="7">
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D28" s="4">
-        <v>3600000000</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-251000000</v>
+      </c>
+      <c r="E28" s="4">
+        <v>360</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" spans="1:6">
       <c r="A29" s="7">
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D29" s="4">
-        <v>3800000000</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-199000000</v>
+      </c>
+      <c r="E29" s="4">
+        <v>720</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" spans="1:6">
       <c r="A30" s="7">
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="4">
-        <v>3850000000</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-145000000</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1440</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" spans="1:6">
       <c r="A31" s="7">
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D31" s="4">
-        <v>3920000000</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-66000000</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" spans="1:6">
       <c r="A32" s="7">
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D32" s="4">
-        <v>4150000000</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-23000000</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" spans="1:6">
       <c r="A33" s="7">
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D33" s="4">
-        <v>4600000000</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>49</v>
+        <v>-2580000</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G33">
+    <sortCondition ref="A2" descending="1"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" display="中元古代" tooltip="https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%83%E5%8F%A4%E4%BB%A3"/>
-    <hyperlink ref="C20" r:id="rId1" display="中元古代" tooltip="https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%83%E5%8F%A4%E4%BB%A3"/>
-    <hyperlink ref="C21" r:id="rId1" display="中元古代" tooltip="https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%83%E5%8F%A4%E4%BB%A3"/>
-    <hyperlink ref="C22" r:id="rId1" display="中元古代" tooltip="https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%83%E5%8F%A4%E4%BB%A3"/>
-    <hyperlink ref="C25" r:id="rId1" display="中元古代" tooltip="https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%83%E5%8F%A4%E4%BB%A3"/>
-    <hyperlink ref="C23" r:id="rId1" display="中元古代" tooltip="https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%83%E5%8F%A4%E4%BB%A3"/>
-    <hyperlink ref="C24" r:id="rId1" display="中元古代" tooltip="https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%83%E5%8F%A4%E4%BB%A3"/>
+    <hyperlink ref="C18" r:id="rId1" display="中元古代" tooltip="https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%83%E5%8F%A4%E4%BB%A3"/>
+    <hyperlink ref="C17" r:id="rId1" display="中元古代" tooltip="https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%83%E5%8F%A4%E4%BB%A3"/>
+    <hyperlink ref="C16" r:id="rId1" display="中元古代" tooltip="https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%83%E5%8F%A4%E4%BB%A3"/>
+    <hyperlink ref="C15" r:id="rId1" display="中元古代" tooltip="https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%83%E5%8F%A4%E4%BB%A3"/>
+    <hyperlink ref="C12" r:id="rId1" display="中元古代" tooltip="https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%83%E5%8F%A4%E4%BB%A3"/>
+    <hyperlink ref="C14" r:id="rId1" display="中元古代" tooltip="https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%83%E5%8F%A4%E4%BB%A3"/>
+    <hyperlink ref="C13" r:id="rId1" display="中元古代" tooltip="https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%83%E5%8F%A4%E4%BB%A3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
